--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3170.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3170.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.349521898005737</v>
+        <v>1.014400005340576</v>
       </c>
       <c r="B1">
-        <v>1.455728203916064</v>
+        <v>2.288256645202637</v>
       </c>
       <c r="C1">
-        <v>1.686099186825928</v>
+        <v>4.823341846466064</v>
       </c>
       <c r="D1">
-        <v>2.753773274112163</v>
+        <v>1.56379759311676</v>
       </c>
       <c r="E1">
-        <v>7.549405812462815</v>
+        <v>1.277548551559448</v>
       </c>
     </row>
   </sheetData>
